--- a/medicine/Psychotrope/Denominación_de_Origen/Denominación_de_Origen.xlsx
+++ b/medicine/Psychotrope/Denominación_de_Origen/Denominación_de_Origen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Denominaci%C3%B3n_de_Origen</t>
+          <t>Denominación_de_Origen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La dénomination d'origine, en espagnol, denominación de origen (DO) ou denominación de origen protegida (DOP), est un label de protection d'un terroir et d'un savoir-faire pour les produits espagnols. C'est l'équivalent en Espagne de l'appellation d'origine contrôlée (AOC) française et de l'appellation d'origine protégée (AOP) européenne.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Denominaci%C3%B3n_de_Origen</t>
+          <t>Denominación_de_Origen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Produits agricoles ou alimentaires autres que les vins et boissons spiritueuses</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Denominación de origen protegida (D.O.P. ou DOP) : Appellation d'origine protégée
 Indicación geográfica protegida (I.G.P. ou IGP) : Indication géographique protégée</t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Denominaci%C3%B3n_de_Origen</t>
+          <t>Denominación_de_Origen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,17 +560,56 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Classes de qualité
-Vins de table :
+          <t>Classes de qualité</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Vins de table :
 Vinos de mesa (Vins de table)
 Vins à mention traditionnelle « vino de la tierra » (vins de table, vin liquoreux, pétillant et vins surmaturés).
 Vins de qualité produits dans des régions déterminées (vqprd) :
 Vins de qualité à Indication géographique.
 Vins à Appellation d'Origine Contrôlée (Denominación de Origen (DO)).
 Vins à Appellation d'Origine Qualifiée (DOC).
-Vinos de pagos.
-Vins espagnols à dénomination d'origine (DO)
-Liste de « denominaciones de origen » (DO) et « Vinos de la Tierra » par Communauté Autonome
+Vinos de pagos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Denominación_de_Origen</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Denominaci%C3%B3n_de_Origen</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Vins</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vins espagnols à dénomination d'origine (DO)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste de « denominaciones de origen » (DO) et « Vinos de la Tierra » par Communauté Autonome
 </t>
         </is>
       </c>
